--- a/HC05_crack_seal_statistics_optical ms.xlsx
+++ b/HC05_crack_seal_statistics_optical ms.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D7B9E1-2AE1-344B-A44B-BE1877BB8F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EB82A5-587C-4C54-B89B-73AC0D9DE8AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16860" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16860" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Profile 1" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -527,7 +527,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -830,7 +830,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -867,7 +867,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2081961208"/>
@@ -950,7 +950,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -982,7 +982,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2081970712"/>
@@ -1023,7 +1023,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1354,7 +1354,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1729,7 +1729,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1766,7 +1766,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2140582280"/>
@@ -1849,7 +1849,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1881,7 +1881,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2086004632"/>
@@ -1922,7 +1922,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2253,7 +2253,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2421,7 +2421,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2458,7 +2458,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2121230152"/>
@@ -2541,7 +2541,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2573,7 +2573,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2082089976"/>
@@ -2614,7 +2614,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2945,7 +2945,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3092,7 +3092,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3129,7 +3129,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2086405480"/>
@@ -3212,7 +3212,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3244,7 +3244,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2086411896"/>
@@ -3285,7 +3285,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3616,7 +3616,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3928,7 +3928,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3965,7 +3965,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2086378120"/>
@@ -4048,7 +4048,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4080,7 +4080,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2086372280"/>
@@ -4122,7 +4122,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4453,7 +4453,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4642,7 +4642,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4679,7 +4679,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2086149928"/>
@@ -4762,7 +4762,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4794,7 +4794,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2086156408"/>
@@ -4836,7 +4836,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6337,7 +6337,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2081797336"/>
@@ -6448,7 +6448,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2086121240"/>
@@ -6490,7 +6490,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6735,7 +6735,7 @@
             <a:pPr>
               <a:defRPr sz="1400"/>
             </a:pPr>
-            <a:endParaRPr lang="en-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="491201312"/>
@@ -6781,7 +6781,7 @@
             <a:pPr>
               <a:defRPr sz="1400"/>
             </a:pPr>
-            <a:endParaRPr lang="en-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="491197584"/>
@@ -6879,7 +6879,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7182,7 +7182,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7219,7 +7219,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2115388808"/>
@@ -7302,7 +7302,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7334,7 +7334,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2141625256"/>
@@ -7375,7 +7375,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7707,7 +7707,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8028,7 +8028,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8065,7 +8065,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2084198632"/>
@@ -8148,7 +8148,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8180,7 +8180,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2083863224"/>
@@ -8222,7 +8222,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8553,7 +8553,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8889,7 +8889,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8926,7 +8926,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2081959224"/>
@@ -9009,7 +9009,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9041,7 +9041,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2081919368"/>
@@ -9083,7 +9083,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9411,7 +9411,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9684,7 +9684,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9721,7 +9721,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2083915000"/>
@@ -9804,7 +9804,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9836,7 +9836,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2139574840"/>
@@ -9878,7 +9878,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16597,22 +16597,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4:C67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
-    <col min="2" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -16620,7 +16621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -16631,7 +16632,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -16648,7 +16649,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -16666,7 +16667,7 @@
         <v>1950.4699999999991</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -16691,7 +16692,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -16716,7 +16717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -16741,7 +16742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -16766,7 +16767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -16784,7 +16785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -16802,7 +16803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -16820,7 +16821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -16838,7 +16839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -16856,7 +16857,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -16874,7 +16875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -16892,7 +16893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -16910,7 +16911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -16928,7 +16929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -16946,7 +16947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>17</v>
       </c>
@@ -16964,7 +16965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -16976,7 +16977,7 @@
         <v>628.36000000000013</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
@@ -16988,7 +16989,7 @@
         <v>640.73000000000013</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -17000,7 +17001,7 @@
         <v>680.12000000000012</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
@@ -17012,7 +17013,7 @@
         <v>721.54000000000008</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
@@ -17024,7 +17025,7 @@
         <v>744.87000000000012</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
@@ -17036,7 +17037,7 @@
         <v>776.55000000000007</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24</v>
       </c>
@@ -17048,7 +17049,7 @@
         <v>803.07</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
@@ -17060,7 +17061,7 @@
         <v>845.81000000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
@@ -17072,7 +17073,7 @@
         <v>857.22</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
@@ -17084,7 +17085,7 @@
         <v>898.44</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
@@ -17096,7 +17097,7 @@
         <v>916.78000000000009</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
@@ -17108,7 +17109,7 @@
         <v>951.16000000000008</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
@@ -17120,7 +17121,7 @@
         <v>984.44</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>31</v>
       </c>
@@ -17132,7 +17133,7 @@
         <v>1014.46</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>32</v>
       </c>
@@ -17144,7 +17145,7 @@
         <v>1024.28</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>33</v>
       </c>
@@ -17156,7 +17157,7 @@
         <v>1053.82</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>34</v>
       </c>
@@ -17168,7 +17169,7 @@
         <v>1071.77</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>35</v>
       </c>
@@ -17180,7 +17181,7 @@
         <v>1119.1399999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>36</v>
       </c>
@@ -17192,7 +17193,7 @@
         <v>1153.1999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>37</v>
       </c>
@@ -17204,7 +17205,7 @@
         <v>1186.5699999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>38</v>
       </c>
@@ -17216,7 +17217,7 @@
         <v>1221.9599999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>39</v>
       </c>
@@ -17228,7 +17229,7 @@
         <v>1240.7999999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>40</v>
       </c>
@@ -17240,7 +17241,7 @@
         <v>1265.8899999999996</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>41</v>
       </c>
@@ -17252,7 +17253,7 @@
         <v>1299.7599999999995</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>42</v>
       </c>
@@ -17264,7 +17265,7 @@
         <v>1356.6099999999994</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>43</v>
       </c>
@@ -17276,7 +17277,7 @@
         <v>1402.9799999999993</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>44</v>
       </c>
@@ -17288,7 +17289,7 @@
         <v>1430.0199999999993</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>45</v>
       </c>
@@ -17300,7 +17301,7 @@
         <v>1449.5899999999992</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>46</v>
       </c>
@@ -17312,7 +17313,7 @@
         <v>1479.4799999999993</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>47</v>
       </c>
@@ -17324,7 +17325,7 @@
         <v>1516.5199999999993</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>48</v>
       </c>
@@ -17336,7 +17337,7 @@
         <v>1545.0599999999993</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>49</v>
       </c>
@@ -17348,7 +17349,7 @@
         <v>1557.4799999999993</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>50</v>
       </c>
@@ -17360,7 +17361,7 @@
         <v>1585.0999999999992</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>51</v>
       </c>
@@ -17372,7 +17373,7 @@
         <v>1617.1599999999992</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>52</v>
       </c>
@@ -17384,7 +17385,7 @@
         <v>1645.6099999999992</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>53</v>
       </c>
@@ -17396,7 +17397,7 @@
         <v>1674.1099999999992</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>54</v>
       </c>
@@ -17408,7 +17409,7 @@
         <v>1691.3799999999992</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>55</v>
       </c>
@@ -17420,7 +17421,7 @@
         <v>1732.6499999999992</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>56</v>
       </c>
@@ -17432,7 +17433,7 @@
         <v>1757.5699999999993</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>57</v>
       </c>
@@ -17444,7 +17445,7 @@
         <v>1804.9399999999991</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>58</v>
       </c>
@@ -17456,7 +17457,7 @@
         <v>1819.1499999999992</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>59</v>
       </c>
@@ -17468,7 +17469,7 @@
         <v>1846.9599999999991</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>60</v>
       </c>
@@ -17480,7 +17481,7 @@
         <v>1874.9999999999991</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>61</v>
       </c>
@@ -17492,7 +17493,7 @@
         <v>1884.2599999999991</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>62</v>
       </c>
@@ -17504,7 +17505,7 @@
         <v>1903.4599999999991</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>63</v>
       </c>
@@ -17516,7 +17517,7 @@
         <v>1934.819999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>64</v>
       </c>
@@ -17525,7 +17526,7 @@
         <v>1950.4699999999991</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -17535,7 +17536,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I7:I19">
+  <sortState ref="I7:I19">
     <sortCondition ref="I7"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17551,18 +17552,19 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3:K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>36</v>
       </c>
@@ -17573,8 +17575,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -17597,7 +17599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -17620,7 +17622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -17645,7 +17647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -17670,7 +17672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -17695,7 +17697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -17720,7 +17722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -17738,7 +17740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -17756,7 +17758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -17774,7 +17776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -17792,7 +17794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -17810,7 +17812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -17828,7 +17830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -17846,7 +17848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -17864,7 +17866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>14</v>
       </c>
@@ -17882,7 +17884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -17894,7 +17896,7 @@
         <v>260.10000000000008</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -17906,7 +17908,7 @@
         <v>284.25000000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -17918,7 +17920,7 @@
         <v>289.20000000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -17930,7 +17932,7 @@
         <v>318.00000000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
@@ -17942,7 +17944,7 @@
         <v>329.88000000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -17954,7 +17956,7 @@
         <v>340.92000000000007</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
@@ -17966,7 +17968,7 @@
         <v>368.09000000000009</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
@@ -17978,7 +17980,7 @@
         <v>381.37000000000006</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
@@ -17990,7 +17992,7 @@
         <v>404.62000000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24</v>
       </c>
@@ -18002,7 +18004,7 @@
         <v>430.88000000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
@@ -18012,7 +18014,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A14">
+  <sortState ref="A2:A14">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18028,27 +18030,27 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet11">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>43</v>
       </c>
@@ -18080,7 +18082,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -18112,7 +18114,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -18144,7 +18146,7 @@
         <v>447.02</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -18176,7 +18178,7 @@
         <v>18.625833333333336</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -18208,7 +18210,7 @@
         <v>31.74</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -18240,7 +18242,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -18272,7 +18274,7 @@
         <v>8.5175940247827207</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>43</v>
       </c>
@@ -18289,7 +18291,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>49</v>
       </c>
@@ -18306,7 +18308,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>50</v>
       </c>
@@ -18323,7 +18325,7 @@
         <v>1624.54</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>51</v>
       </c>
@@ -18341,7 +18343,7 @@
       </c>
       <c r="F16" s="21"/>
     </row>
-    <row r="17" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>52</v>
       </c>
@@ -18358,7 +18360,7 @@
         <v>59.41</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>53</v>
       </c>
@@ -18375,7 +18377,7 @@
         <v>7.72</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>54</v>
       </c>
@@ -18405,18 +18407,19 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:F260"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="F4" sqref="F4:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -18427,7 +18430,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -18438,7 +18441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -18451,7 +18454,7 @@
         <v>51.62</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
@@ -18470,7 +18473,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -18489,7 +18492,7 @@
         <v>7114.3899999999967</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -18509,7 +18512,7 @@
         <v>27.899568627450968</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -18529,7 +18532,7 @@
         <v>64.03</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -18549,7 +18552,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -18569,7 +18572,7 @@
         <v>12.102926933777935</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -18582,7 +18585,7 @@
         <v>346.86</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -18595,7 +18598,7 @@
         <v>381.02</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -18610,7 +18613,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -18623,7 +18626,7 @@
         <v>400.81999999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -18636,7 +18639,7 @@
         <v>408.40999999999991</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -18649,7 +18652,7 @@
         <v>457.86999999999989</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -18662,7 +18665,7 @@
         <v>487.2999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -18675,7 +18678,7 @@
         <v>535.87999999999988</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -18688,7 +18691,7 @@
         <v>577.29999999999984</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -18701,7 +18704,7 @@
         <v>624.19999999999982</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -18714,7 +18717,7 @@
         <v>634.78999999999985</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -18727,7 +18730,7 @@
         <v>647.20999999999981</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -18740,7 +18743,7 @@
         <v>685.8399999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -18753,7 +18756,7 @@
         <v>729.03999999999985</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -18766,7 +18769,7 @@
         <v>749.49999999999989</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -18779,7 +18782,7 @@
         <v>782.38999999999987</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -18794,7 +18797,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -18807,7 +18810,7 @@
         <v>851.65999999999985</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -18820,7 +18823,7 @@
         <v>863.63999999999987</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -18839,7 +18842,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -18858,7 +18861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -18877,7 +18880,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -18896,7 +18899,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -18915,7 +18918,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -18934,7 +18937,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -18953,7 +18956,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -18972,7 +18975,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -18991,7 +18994,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -19010,7 +19013,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -19029,7 +19032,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -19048,7 +19051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -19067,7 +19070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -19086,7 +19089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -19099,7 +19102,7 @@
         <v>1308.3599999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -19112,7 +19115,7 @@
         <v>1364.2099999999996</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -19125,7 +19128,7 @@
         <v>1412.0499999999995</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -19138,7 +19141,7 @@
         <v>1440.5899999999995</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -19151,7 +19154,7 @@
         <v>1440.7999999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -19164,7 +19167,7 @@
         <v>1473.9999999999995</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -19177,7 +19180,7 @@
         <v>1518.1899999999996</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -19190,7 +19193,7 @@
         <v>1552.7299999999996</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -19203,7 +19206,7 @@
         <v>1567.2399999999996</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -19216,7 +19219,7 @@
         <v>1597.3999999999996</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -19229,7 +19232,7 @@
         <v>1631.2099999999996</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -19242,7 +19245,7 @@
         <v>1664.3599999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -19255,7 +19258,7 @@
         <v>1684.1899999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -19268,7 +19271,7 @@
         <v>1728.1799999999996</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -19281,7 +19284,7 @@
         <v>1754.8999999999996</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -19294,7 +19297,7 @@
         <v>1801.8699999999997</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -19307,7 +19310,7 @@
         <v>1819.1399999999996</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -19320,7 +19323,7 @@
         <v>1847.9499999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -19333,7 +19336,7 @@
         <v>1881.7499999999995</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -19346,7 +19349,7 @@
         <v>1891.6699999999996</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -19359,7 +19362,7 @@
         <v>1911.8199999999997</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -19369,7 +19372,7 @@
         <v>1950.3299999999997</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -19382,7 +19385,7 @@
         <v>1950.3299999999997</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -19395,7 +19398,7 @@
         <v>1970.1799999999996</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -19408,7 +19411,7 @@
         <v>2008.2499999999995</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" ref="A68:A131" si="2">A67+1</f>
         <v>67</v>
@@ -19421,7 +19424,7 @@
         <v>2021.8199999999995</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="2"/>
         <v>68</v>
@@ -19434,7 +19437,7 @@
         <v>2034.6999999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="2"/>
         <v>69</v>
@@ -19447,7 +19450,7 @@
         <v>2047.7999999999995</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="2"/>
         <v>70</v>
@@ -19460,7 +19463,7 @@
         <v>2064.8099999999995</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="2"/>
         <v>71</v>
@@ -19473,7 +19476,7 @@
         <v>2077.6999999999994</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="2"/>
         <v>72</v>
@@ -19486,7 +19489,7 @@
         <v>2096.7899999999995</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="2"/>
         <v>73</v>
@@ -19499,7 +19502,7 @@
         <v>2109.4799999999996</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="2"/>
         <v>74</v>
@@ -19512,7 +19515,7 @@
         <v>2123.3099999999995</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="2"/>
         <v>75</v>
@@ -19525,7 +19528,7 @@
         <v>2137.8199999999997</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="2"/>
         <v>76</v>
@@ -19538,7 +19541,7 @@
         <v>2154.1499999999996</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="2"/>
         <v>77</v>
@@ -19551,7 +19554,7 @@
         <v>2179.9199999999996</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="2"/>
         <v>78</v>
@@ -19564,7 +19567,7 @@
         <v>2192.1299999999997</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="2"/>
         <v>79</v>
@@ -19577,7 +19580,7 @@
         <v>2225.9399999999996</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -19590,7 +19593,7 @@
         <v>2260.2299999999996</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="2"/>
         <v>81</v>
@@ -19603,7 +19606,7 @@
         <v>2292.0999999999995</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="2"/>
         <v>82</v>
@@ -19616,7 +19619,7 @@
         <v>2321.1099999999997</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="2"/>
         <v>83</v>
@@ -19629,7 +19632,7 @@
         <v>2346.3099999999995</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="2"/>
         <v>84</v>
@@ -19642,7 +19645,7 @@
         <v>2358.3399999999997</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="2"/>
         <v>85</v>
@@ -19655,7 +19658,7 @@
         <v>2369.14</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="2"/>
         <v>86</v>
@@ -19668,7 +19671,7 @@
         <v>2402.27</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="2"/>
         <v>87</v>
@@ -19681,7 +19684,7 @@
         <v>2440.16</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="2"/>
         <v>88</v>
@@ -19694,7 +19697,7 @@
         <v>2455.27</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="2"/>
         <v>89</v>
@@ -19707,7 +19710,7 @@
         <v>2466.4899999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -19720,7 +19723,7 @@
         <v>2493.7999999999997</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="2"/>
         <v>91</v>
@@ -19733,7 +19736,7 @@
         <v>2515.2599999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="2"/>
         <v>92</v>
@@ -19746,7 +19749,7 @@
         <v>2543.56</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="2"/>
         <v>93</v>
@@ -19759,7 +19762,7 @@
         <v>2567.4899999999998</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="2"/>
         <v>94</v>
@@ -19772,7 +19775,7 @@
         <v>2597.6499999999996</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="2"/>
         <v>95</v>
@@ -19785,7 +19788,7 @@
         <v>2635.0499999999997</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" si="2"/>
         <v>96</v>
@@ -19798,7 +19801,7 @@
         <v>2658.5299999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="2"/>
         <v>97</v>
@@ -19811,7 +19814,7 @@
         <v>2673.14</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="2"/>
         <v>98</v>
@@ -19824,7 +19827,7 @@
         <v>2695.3199999999997</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="2"/>
         <v>99</v>
@@ -19837,7 +19840,7 @@
         <v>2722.74</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -19850,7 +19853,7 @@
         <v>2759.6299999999997</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="2"/>
         <v>101</v>
@@ -19863,7 +19866,7 @@
         <v>2796.1199999999994</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -19876,7 +19879,7 @@
         <v>2824.7599999999993</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -19889,7 +19892,7 @@
         <v>2860.2399999999993</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -19902,7 +19905,7 @@
         <v>2874.7699999999995</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -19915,7 +19918,7 @@
         <v>2903.1899999999996</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -19928,7 +19931,7 @@
         <v>2926.2699999999995</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" si="2"/>
         <v>107</v>
@@ -19941,7 +19944,7 @@
         <v>2954.7199999999993</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <f t="shared" si="2"/>
         <v>108</v>
@@ -19954,7 +19957,7 @@
         <v>2986.5699999999993</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <f t="shared" si="2"/>
         <v>109</v>
@@ -19967,7 +19970,7 @@
         <v>3020.0399999999991</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -19980,7 +19983,7 @@
         <v>3048.639999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -19993,7 +19996,7 @@
         <v>3074.8199999999988</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <f t="shared" si="2"/>
         <v>112</v>
@@ -20006,7 +20009,7 @@
         <v>3091.7699999999986</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <f t="shared" si="2"/>
         <v>113</v>
@@ -20019,7 +20022,7 @@
         <v>3118.8899999999985</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <f t="shared" si="2"/>
         <v>114</v>
@@ -20032,7 +20035,7 @@
         <v>3140.3499999999985</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <f t="shared" si="2"/>
         <v>115</v>
@@ -20045,7 +20048,7 @@
         <v>3170.3099999999986</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <f t="shared" si="2"/>
         <v>116</v>
@@ -20058,7 +20061,7 @@
         <v>3207.7199999999984</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <f t="shared" si="2"/>
         <v>117</v>
@@ -20071,7 +20074,7 @@
         <v>3240.4999999999986</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <f t="shared" si="2"/>
         <v>118</v>
@@ -20084,7 +20087,7 @@
         <v>3272.1599999999985</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <f t="shared" si="2"/>
         <v>119</v>
@@ -20097,7 +20100,7 @@
         <v>3302.9399999999987</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -20110,7 +20113,7 @@
         <v>3315.0299999999988</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <f t="shared" si="2"/>
         <v>121</v>
@@ -20123,7 +20126,7 @@
         <v>3342.0699999999988</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <f t="shared" si="2"/>
         <v>122</v>
@@ -20136,7 +20139,7 @@
         <v>3375.119999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <f t="shared" si="2"/>
         <v>123</v>
@@ -20149,7 +20152,7 @@
         <v>3406.4599999999991</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <f t="shared" si="2"/>
         <v>124</v>
@@ -20162,7 +20165,7 @@
         <v>3433.0699999999993</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <f t="shared" si="2"/>
         <v>125</v>
@@ -20175,7 +20178,7 @@
         <v>3456.1499999999992</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <f t="shared" si="2"/>
         <v>126</v>
@@ -20188,7 +20191,7 @@
         <v>3480.9499999999994</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <f t="shared" si="2"/>
         <v>127</v>
@@ -20201,7 +20204,7 @@
         <v>3508.3699999999994</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <f t="shared" si="2"/>
         <v>128</v>
@@ -20214,7 +20217,7 @@
         <v>3525.1099999999992</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <f t="shared" si="2"/>
         <v>129</v>
@@ -20227,7 +20230,7 @@
         <v>3549.7999999999993</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -20240,7 +20243,7 @@
         <v>3581.1399999999994</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <f t="shared" ref="A132:A195" si="4">A131+1</f>
         <v>131</v>
@@ -20253,7 +20256,7 @@
         <v>3598.0899999999992</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <f t="shared" si="4"/>
         <v>132</v>
@@ -20263,7 +20266,7 @@
         <v>3625.2599999999993</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <f t="shared" si="4"/>
         <v>133</v>
@@ -20276,7 +20279,7 @@
         <v>3625.2599999999993</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <f t="shared" si="4"/>
         <v>134</v>
@@ -20289,7 +20292,7 @@
         <v>3653.2199999999993</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <f t="shared" si="4"/>
         <v>135</v>
@@ -20302,7 +20305,7 @@
         <v>3674.2099999999991</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <f t="shared" si="4"/>
         <v>136</v>
@@ -20315,7 +20318,7 @@
         <v>3715.6299999999992</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <f t="shared" si="4"/>
         <v>137</v>
@@ -20328,7 +20331,7 @@
         <v>3752.0299999999993</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <f t="shared" si="4"/>
         <v>138</v>
@@ -20341,7 +20344,7 @@
         <v>3783.2399999999993</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <f t="shared" si="4"/>
         <v>139</v>
@@ -20354,7 +20357,7 @@
         <v>3812.0499999999993</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <f t="shared" si="4"/>
         <v>140</v>
@@ -20367,7 +20370,7 @@
         <v>3871.1099999999992</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <f t="shared" si="4"/>
         <v>141</v>
@@ -20380,7 +20383,7 @@
         <v>3905.1799999999994</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <f t="shared" si="4"/>
         <v>142</v>
@@ -20393,7 +20396,7 @@
         <v>3929.4199999999992</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <f t="shared" si="4"/>
         <v>143</v>
@@ -20406,7 +20409,7 @@
         <v>3957.0399999999991</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <f t="shared" si="4"/>
         <v>144</v>
@@ -20419,7 +20422,7 @@
         <v>3982.2399999999989</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <f t="shared" si="4"/>
         <v>145</v>
@@ -20432,7 +20435,7 @@
         <v>4007.3399999999988</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
         <f t="shared" si="4"/>
         <v>146</v>
@@ -20445,7 +20448,7 @@
         <v>4022.7999999999988</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
         <f t="shared" si="4"/>
         <v>147</v>
@@ -20458,7 +20461,7 @@
         <v>4032.7199999999989</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
         <f t="shared" si="4"/>
         <v>148</v>
@@ -20471,7 +20474,7 @@
         <v>4067.4699999999989</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
         <f t="shared" si="4"/>
         <v>149</v>
@@ -20484,7 +20487,7 @@
         <v>4091.8999999999987</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
         <f t="shared" si="4"/>
         <v>150</v>
@@ -20497,7 +20500,7 @@
         <v>4131.0599999999986</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
         <f t="shared" si="4"/>
         <v>151</v>
@@ -20510,7 +20513,7 @@
         <v>4165.8899999999985</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
         <f t="shared" si="4"/>
         <v>152</v>
@@ -20523,7 +20526,7 @@
         <v>4184.5899999999983</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
         <f t="shared" si="4"/>
         <v>153</v>
@@ -20536,7 +20539,7 @@
         <v>4212.2599999999984</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
         <f t="shared" si="4"/>
         <v>154</v>
@@ -20549,7 +20552,7 @@
         <v>4235.659999999998</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
         <f t="shared" si="4"/>
         <v>155</v>
@@ -20562,7 +20565,7 @@
         <v>4275.1399999999976</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
         <f t="shared" si="4"/>
         <v>156</v>
@@ -20575,7 +20578,7 @@
         <v>4282.9699999999975</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
         <f t="shared" si="4"/>
         <v>157</v>
@@ -20588,7 +20591,7 @@
         <v>4312.0799999999972</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
         <f t="shared" si="4"/>
         <v>158</v>
@@ -20601,7 +20604,7 @@
         <v>4346.2399999999971</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
         <f t="shared" si="4"/>
         <v>159</v>
@@ -20614,7 +20617,7 @@
         <v>4373.2399999999971</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
         <f t="shared" si="4"/>
         <v>160</v>
@@ -20627,7 +20630,7 @@
         <v>4418.6599999999971</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
         <f t="shared" si="4"/>
         <v>161</v>
@@ -20640,7 +20643,7 @@
         <v>4450.0499999999975</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
         <f t="shared" si="4"/>
         <v>162</v>
@@ -20653,7 +20656,7 @@
         <v>4483.2499999999973</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
         <f t="shared" si="4"/>
         <v>163</v>
@@ -20666,7 +20669,7 @@
         <v>4515.7899999999972</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
         <f t="shared" si="4"/>
         <v>164</v>
@@ -20679,7 +20682,7 @@
         <v>4541.2999999999975</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
         <f t="shared" si="4"/>
         <v>165</v>
@@ -20692,7 +20695,7 @@
         <v>4575.4199999999973</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
         <f t="shared" si="4"/>
         <v>166</v>
@@ -20705,7 +20708,7 @@
         <v>4611.1099999999969</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
         <f t="shared" si="4"/>
         <v>167</v>
@@ -20718,7 +20721,7 @@
         <v>4636.2099999999973</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
         <f t="shared" si="4"/>
         <v>168</v>
@@ -20731,7 +20734,7 @@
         <v>4661.9799999999977</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
         <f t="shared" si="4"/>
         <v>169</v>
@@ -20744,7 +20747,7 @@
         <v>4672.0999999999976</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
         <f t="shared" si="4"/>
         <v>170</v>
@@ -20757,7 +20760,7 @@
         <v>4677.8399999999974</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
         <f t="shared" si="4"/>
         <v>171</v>
@@ -20770,7 +20773,7 @@
         <v>4686.8099999999977</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
         <f t="shared" si="4"/>
         <v>172</v>
@@ -20783,7 +20786,7 @@
         <v>4707.0499999999975</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
         <f t="shared" si="4"/>
         <v>173</v>
@@ -20796,7 +20799,7 @@
         <v>4721.0799999999972</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
         <f t="shared" si="4"/>
         <v>174</v>
@@ -20809,7 +20812,7 @@
         <v>4769.0199999999968</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
         <f t="shared" si="4"/>
         <v>175</v>
@@ -20822,7 +20825,7 @@
         <v>4795.8399999999965</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
         <f t="shared" si="4"/>
         <v>176</v>
@@ -20835,7 +20838,7 @@
         <v>4824.5999999999967</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
         <f t="shared" si="4"/>
         <v>177</v>
@@ -20848,7 +20851,7 @@
         <v>4850.4399999999969</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
         <f t="shared" si="4"/>
         <v>178</v>
@@ -20861,7 +20864,7 @@
         <v>4879.8499999999967</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
         <f t="shared" si="4"/>
         <v>179</v>
@@ -20874,7 +20877,7 @@
         <v>4908.6099999999969</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
         <f t="shared" si="4"/>
         <v>180</v>
@@ -20887,7 +20890,7 @@
         <v>4922.0999999999967</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
         <f t="shared" si="4"/>
         <v>181</v>
@@ -20900,7 +20903,7 @@
         <v>4948.7499999999964</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
         <f t="shared" si="4"/>
         <v>182</v>
@@ -20913,7 +20916,7 @@
         <v>4961.9199999999964</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
         <f t="shared" si="4"/>
         <v>183</v>
@@ -20926,7 +20929,7 @@
         <v>4998.5599999999968</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
         <f t="shared" si="4"/>
         <v>184</v>
@@ -20939,7 +20942,7 @@
         <v>5006.6799999999967</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
         <f t="shared" si="4"/>
         <v>185</v>
@@ -20952,7 +20955,7 @@
         <v>5044.0499999999965</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
         <f t="shared" si="4"/>
         <v>186</v>
@@ -20965,7 +20968,7 @@
         <v>5054.6399999999967</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
         <f t="shared" si="4"/>
         <v>187</v>
@@ -20978,7 +20981,7 @@
         <v>5098.3999999999969</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
         <f t="shared" si="4"/>
         <v>188</v>
@@ -20991,7 +20994,7 @@
         <v>5109.1299999999965</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
         <f t="shared" si="4"/>
         <v>189</v>
@@ -21004,7 +21007,7 @@
         <v>5140.1799999999967</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
         <f t="shared" si="4"/>
         <v>190</v>
@@ -21017,7 +21020,7 @@
         <v>5184.5399999999963</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
         <f t="shared" si="4"/>
         <v>191</v>
@@ -21030,7 +21033,7 @@
         <v>5198.8499999999967</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
         <f t="shared" si="4"/>
         <v>192</v>
@@ -21043,7 +21046,7 @@
         <v>5239.9599999999964</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
         <f t="shared" si="4"/>
         <v>193</v>
@@ -21056,7 +21059,7 @@
         <v>5266.4499999999962</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
         <f t="shared" si="4"/>
         <v>194</v>
@@ -21069,7 +21072,7 @@
         <v>5275.899999999996</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
         <f t="shared" ref="A196:A259" si="6">A195+1</f>
         <v>195</v>
@@ -21082,7 +21085,7 @@
         <v>5295.7499999999964</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
         <f t="shared" si="6"/>
         <v>196</v>
@@ -21095,7 +21098,7 @@
         <v>5335.2299999999959</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
         <f t="shared" si="6"/>
         <v>197</v>
@@ -21108,7 +21111,7 @@
         <v>5354.0799999999963</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
         <f t="shared" si="6"/>
         <v>198</v>
@@ -21121,7 +21124,7 @@
         <v>5361.5599999999959</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
         <f t="shared" si="6"/>
         <v>199</v>
@@ -21134,7 +21137,7 @@
         <v>5378.6399999999958</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
         <f t="shared" si="6"/>
         <v>200</v>
@@ -21147,7 +21150,7 @@
         <v>5387.2499999999955</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
         <f t="shared" si="6"/>
         <v>201</v>
@@ -21160,7 +21163,7 @@
         <v>5404.1999999999953</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
         <f t="shared" si="6"/>
         <v>202</v>
@@ -21173,7 +21176,7 @@
         <v>5413.1699999999955</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
         <f t="shared" si="6"/>
         <v>203</v>
@@ -21186,7 +21189,7 @@
         <v>5424.2599999999957</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
         <f t="shared" si="6"/>
         <v>204</v>
@@ -21199,7 +21202,7 @@
         <v>5432.2399999999952</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
         <f t="shared" si="6"/>
         <v>205</v>
@@ -21212,7 +21215,7 @@
         <v>5470.1399999999949</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
         <f t="shared" si="6"/>
         <v>206</v>
@@ -21222,7 +21225,7 @@
         <v>5511.8899999999949</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
         <f t="shared" si="6"/>
         <v>207</v>
@@ -21235,7 +21238,7 @@
         <v>5511.8899999999949</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
         <f t="shared" si="6"/>
         <v>208</v>
@@ -21248,7 +21251,7 @@
         <v>5559.2599999999948</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
         <f t="shared" si="6"/>
         <v>209</v>
@@ -21261,7 +21264,7 @@
         <v>5600.6399999999949</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
         <f t="shared" si="6"/>
         <v>210</v>
@@ -21274,7 +21277,7 @@
         <v>5641.3099999999949</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
         <f t="shared" si="6"/>
         <v>211</v>
@@ -21287,7 +21290,7 @@
         <v>5669.8099999999949</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
         <f t="shared" si="6"/>
         <v>212</v>
@@ -21300,7 +21303,7 @@
         <v>5698.1099999999951</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
         <f t="shared" si="6"/>
         <v>213</v>
@@ -21313,7 +21316,7 @@
         <v>5747.5299999999952</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
         <f t="shared" si="6"/>
         <v>214</v>
@@ -21326,7 +21329,7 @@
         <v>5790.9599999999955</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
         <f t="shared" si="6"/>
         <v>215</v>
@@ -21339,7 +21342,7 @@
         <v>5839.9099999999953</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
         <f t="shared" si="6"/>
         <v>216</v>
@@ -21352,7 +21355,7 @@
         <v>5893.5499999999956</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
         <f t="shared" si="6"/>
         <v>217</v>
@@ -21365,7 +21368,7 @@
         <v>5919.2399999999952</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
         <f t="shared" si="6"/>
         <v>218</v>
@@ -21378,7 +21381,7 @@
         <v>5966.3899999999949</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
         <f t="shared" si="6"/>
         <v>219</v>
@@ -21391,7 +21394,7 @@
         <v>6004.4299999999948</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221">
         <f t="shared" si="6"/>
         <v>220</v>
@@ -21404,7 +21407,7 @@
         <v>6042.7999999999947</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222">
         <f t="shared" si="6"/>
         <v>221</v>
@@ -21417,7 +21420,7 @@
         <v>6054.0499999999947</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223">
         <f t="shared" si="6"/>
         <v>222</v>
@@ -21430,7 +21433,7 @@
         <v>6064.8999999999951</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224">
         <f t="shared" si="6"/>
         <v>223</v>
@@ -21443,7 +21446,7 @@
         <v>6086.3199999999952</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
         <f t="shared" si="6"/>
         <v>224</v>
@@ -21456,7 +21459,7 @@
         <v>6094.2399999999952</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
         <f t="shared" si="6"/>
         <v>225</v>
@@ -21469,7 +21472,7 @@
         <v>6103.2099999999955</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
         <f t="shared" si="6"/>
         <v>226</v>
@@ -21482,7 +21485,7 @@
         <v>6128.3099999999959</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
         <f t="shared" si="6"/>
         <v>227</v>
@@ -21495,7 +21498,7 @@
         <v>6178.3099999999959</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
         <f t="shared" si="6"/>
         <v>228</v>
@@ -21508,7 +21511,7 @@
         <v>6213.5299999999961</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
         <f t="shared" si="6"/>
         <v>229</v>
@@ -21521,7 +21524,7 @@
         <v>6253.1299999999965</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
         <f t="shared" si="6"/>
         <v>230</v>
@@ -21534,7 +21537,7 @@
         <v>6299.1399999999967</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
         <f t="shared" si="6"/>
         <v>231</v>
@@ -21547,7 +21550,7 @@
         <v>6335.4999999999964</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233">
         <f t="shared" si="6"/>
         <v>232</v>
@@ -21560,7 +21563,7 @@
         <v>6358.359999999996</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234">
         <f t="shared" si="6"/>
         <v>233</v>
@@ -21573,7 +21576,7 @@
         <v>6373.0599999999959</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235">
         <f t="shared" si="6"/>
         <v>234</v>
@@ -21586,7 +21589,7 @@
         <v>6391.5899999999956</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236">
         <f t="shared" si="6"/>
         <v>235</v>
@@ -21599,7 +21602,7 @@
         <v>6421.2399999999952</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237">
         <f t="shared" si="6"/>
         <v>236</v>
@@ -21612,7 +21615,7 @@
         <v>6453.019999999995</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238">
         <f t="shared" si="6"/>
         <v>237</v>
@@ -21625,7 +21628,7 @@
         <v>6489.8599999999951</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239">
         <f t="shared" si="6"/>
         <v>238</v>
@@ -21638,7 +21641,7 @@
         <v>6518.6199999999953</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240">
         <f t="shared" si="6"/>
         <v>239</v>
@@ -21651,7 +21654,7 @@
         <v>6523.6199999999953</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241">
         <f t="shared" si="6"/>
         <v>240</v>
@@ -21664,7 +21667,7 @@
         <v>6532.6399999999958</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242">
         <f t="shared" si="6"/>
         <v>241</v>
@@ -21677,7 +21680,7 @@
         <v>6539.6999999999962</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243">
         <f t="shared" si="6"/>
         <v>242</v>
@@ -21690,7 +21693,7 @@
         <v>6545.8799999999965</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244">
         <f t="shared" si="6"/>
         <v>243</v>
@@ -21703,7 +21706,7 @@
         <v>6579.8899999999967</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245">
         <f t="shared" si="6"/>
         <v>244</v>
@@ -21716,7 +21719,7 @@
         <v>6614.5899999999965</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246">
         <f t="shared" si="6"/>
         <v>245</v>
@@ -21729,7 +21732,7 @@
         <v>6653.1899999999969</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247">
         <f t="shared" si="6"/>
         <v>246</v>
@@ -21742,7 +21745,7 @@
         <v>6685.3599999999969</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248">
         <f t="shared" si="6"/>
         <v>247</v>
@@ -21755,7 +21758,7 @@
         <v>6712.279999999997</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249">
         <f t="shared" si="6"/>
         <v>248</v>
@@ -21768,7 +21771,7 @@
         <v>6741.2399999999971</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250">
         <f t="shared" si="6"/>
         <v>249</v>
@@ -21781,7 +21784,7 @@
         <v>6765.4799999999968</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251">
         <f t="shared" si="6"/>
         <v>250</v>
@@ -21794,7 +21797,7 @@
         <v>6795.8099999999968</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252">
         <f t="shared" si="6"/>
         <v>251</v>
@@ -21807,7 +21810,7 @@
         <v>6834.8399999999965</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253">
         <f t="shared" si="6"/>
         <v>252</v>
@@ -21820,7 +21823,7 @@
         <v>6865.9499999999962</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254">
         <f t="shared" si="6"/>
         <v>253</v>
@@ -21833,7 +21836,7 @@
         <v>6888.0899999999965</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255">
         <f t="shared" si="6"/>
         <v>254</v>
@@ -21846,7 +21849,7 @@
         <v>6929.0499999999965</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256">
         <f t="shared" si="6"/>
         <v>255</v>
@@ -21859,7 +21862,7 @@
         <v>6979.3299999999963</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257">
         <f t="shared" si="6"/>
         <v>256</v>
@@ -21872,7 +21875,7 @@
         <v>7009.5499999999965</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258">
         <f t="shared" si="6"/>
         <v>257</v>
@@ -21885,7 +21888,7 @@
         <v>7045.2999999999965</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259">
         <f t="shared" si="6"/>
         <v>258</v>
@@ -21898,7 +21901,7 @@
         <v>7079.0999999999967</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260">
         <f t="shared" ref="A260" si="8">A259+1</f>
         <v>259</v>
@@ -21909,7 +21912,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E30:E41">
+  <sortState ref="E30:E41">
     <sortCondition ref="E30"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21925,18 +21928,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4:C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
@@ -21944,7 +21948,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -21955,7 +21959,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -21972,7 +21976,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -21996,7 +22000,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -22021,7 +22025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -22046,7 +22050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -22071,7 +22075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -22096,7 +22100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -22114,7 +22118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -22132,7 +22136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -22150,7 +22154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -22168,7 +22172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -22186,7 +22190,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -22204,7 +22208,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -22222,7 +22226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -22240,7 +22244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -22258,7 +22262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>16</v>
       </c>
@@ -22276,7 +22280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -22288,7 +22292,7 @@
         <v>577.29999999999984</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -22300,7 +22304,7 @@
         <v>624.19999999999982</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
@@ -22312,7 +22316,7 @@
         <v>634.78999999999985</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -22324,7 +22328,7 @@
         <v>647.20999999999981</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
@@ -22336,7 +22340,7 @@
         <v>685.8399999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
@@ -22348,7 +22352,7 @@
         <v>729.03999999999985</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
@@ -22360,7 +22364,7 @@
         <v>749.49999999999989</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24</v>
       </c>
@@ -22372,7 +22376,7 @@
         <v>782.38999999999987</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
@@ -22384,7 +22388,7 @@
         <v>808.38999999999987</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
@@ -22396,7 +22400,7 @@
         <v>851.65999999999985</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
@@ -22408,7 +22412,7 @@
         <v>863.63999999999987</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
@@ -22420,7 +22424,7 @@
         <v>904.70999999999992</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
@@ -22432,7 +22436,7 @@
         <v>926.56999999999994</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
@@ -22444,7 +22448,7 @@
         <v>960.11999999999989</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>31</v>
       </c>
@@ -22456,7 +22460,7 @@
         <v>993.92999999999984</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>32</v>
       </c>
@@ -22468,7 +22472,7 @@
         <v>1024.2899999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>33</v>
       </c>
@@ -22480,7 +22484,7 @@
         <v>1034.1699999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>34</v>
       </c>
@@ -22492,7 +22496,7 @@
         <v>1067.9799999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>35</v>
       </c>
@@ -22504,7 +22508,7 @@
         <v>1087.0699999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>36</v>
       </c>
@@ -22516,7 +22520,7 @@
         <v>1125.8099999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>37</v>
       </c>
@@ -22528,7 +22532,7 @@
         <v>1160.8299999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>38</v>
       </c>
@@ -22540,7 +22544,7 @@
         <v>1196.4499999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>39</v>
       </c>
@@ -22552,7 +22556,7 @@
         <v>1231.3799999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>40</v>
       </c>
@@ -22564,7 +22568,7 @@
         <v>1248.6099999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>41</v>
       </c>
@@ -22576,7 +22580,7 @@
         <v>1272.7399999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>42</v>
       </c>
@@ -22588,7 +22592,7 @@
         <v>1308.3599999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>43</v>
       </c>
@@ -22600,7 +22604,7 @@
         <v>1364.2099999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>44</v>
       </c>
@@ -22612,7 +22616,7 @@
         <v>1412.0499999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>45</v>
       </c>
@@ -22624,7 +22628,7 @@
         <v>1440.5899999999995</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>46</v>
       </c>
@@ -22636,7 +22640,7 @@
         <v>1440.7999999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>47</v>
       </c>
@@ -22648,7 +22652,7 @@
         <v>1473.9999999999995</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>48</v>
       </c>
@@ -22660,7 +22664,7 @@
         <v>1518.1899999999996</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>49</v>
       </c>
@@ -22672,7 +22676,7 @@
         <v>1552.7299999999996</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>50</v>
       </c>
@@ -22684,7 +22688,7 @@
         <v>1567.2399999999996</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>51</v>
       </c>
@@ -22696,7 +22700,7 @@
         <v>1597.3999999999996</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>52</v>
       </c>
@@ -22708,7 +22712,7 @@
         <v>1631.2099999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>53</v>
       </c>
@@ -22720,7 +22724,7 @@
         <v>1664.3599999999997</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>54</v>
       </c>
@@ -22732,7 +22736,7 @@
         <v>1684.1899999999996</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>55</v>
       </c>
@@ -22744,7 +22748,7 @@
         <v>1728.1799999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>56</v>
       </c>
@@ -22756,7 +22760,7 @@
         <v>1754.8999999999996</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>57</v>
       </c>
@@ -22768,7 +22772,7 @@
         <v>1801.8699999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>58</v>
       </c>
@@ -22780,7 +22784,7 @@
         <v>1819.1399999999996</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>59</v>
       </c>
@@ -22792,7 +22796,7 @@
         <v>1847.9499999999996</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>60</v>
       </c>
@@ -22804,7 +22808,7 @@
         <v>1881.7499999999995</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>61</v>
       </c>
@@ -22816,7 +22820,7 @@
         <v>1891.6699999999996</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>62</v>
       </c>
@@ -22828,7 +22832,7 @@
         <v>1911.8199999999997</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>63</v>
       </c>
@@ -22851,18 +22855,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4:C72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -22870,7 +22875,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -22881,7 +22886,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -22892,7 +22897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -22917,7 +22922,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -22941,7 +22946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -22966,7 +22971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -22991,7 +22996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -23016,7 +23021,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -23041,7 +23046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -23059,7 +23064,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -23077,7 +23082,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -23095,7 +23100,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -23113,7 +23118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -23131,7 +23136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -23149,7 +23154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -23167,7 +23172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -23185,7 +23190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>16</v>
       </c>
@@ -23204,7 +23209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -23216,7 +23221,7 @@
         <v>309.90000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -23228,7 +23233,7 @@
         <v>341.77000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
@@ -23240,7 +23245,7 @@
         <v>370.78000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -23252,7 +23257,7 @@
         <v>395.98</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
@@ -23264,7 +23269,7 @@
         <v>408.01</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
@@ -23276,7 +23281,7 @@
         <v>418.81</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
@@ -23288,7 +23293,7 @@
         <v>451.94</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24</v>
       </c>
@@ -23300,7 +23305,7 @@
         <v>489.83</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
@@ -23312,7 +23317,7 @@
         <v>504.94</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
@@ -23324,7 +23329,7 @@
         <v>516.16</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
@@ -23336,7 +23341,7 @@
         <v>543.46999999999991</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
@@ -23348,7 +23353,7 @@
         <v>564.92999999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
@@ -23360,7 +23365,7 @@
         <v>593.2299999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
@@ -23372,7 +23377,7 @@
         <v>617.15999999999985</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>31</v>
       </c>
@@ -23384,7 +23389,7 @@
         <v>647.31999999999982</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>32</v>
       </c>
@@ -23396,7 +23401,7 @@
         <v>684.7199999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>33</v>
       </c>
@@ -23408,7 +23413,7 @@
         <v>708.19999999999982</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>34</v>
       </c>
@@ -23420,7 +23425,7 @@
         <v>722.80999999999983</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>35</v>
       </c>
@@ -23432,7 +23437,7 @@
         <v>744.98999999999978</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>36</v>
       </c>
@@ -23444,7 +23449,7 @@
         <v>772.40999999999974</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>37</v>
       </c>
@@ -23456,7 +23461,7 @@
         <v>809.29999999999973</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>38</v>
       </c>
@@ -23468,7 +23473,7 @@
         <v>845.78999999999974</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>39</v>
       </c>
@@ -23480,7 +23485,7 @@
         <v>874.42999999999972</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>40</v>
       </c>
@@ -23492,7 +23497,7 @@
         <v>909.90999999999974</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>41</v>
       </c>
@@ -23504,7 +23509,7 @@
         <v>924.43999999999971</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>42</v>
       </c>
@@ -23516,7 +23521,7 @@
         <v>952.85999999999967</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>43</v>
       </c>
@@ -23528,7 +23533,7 @@
         <v>975.93999999999971</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>44</v>
       </c>
@@ -23540,7 +23545,7 @@
         <v>1004.3899999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>45</v>
       </c>
@@ -23552,7 +23557,7 @@
         <v>1036.2399999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>46</v>
       </c>
@@ -23564,7 +23569,7 @@
         <v>1069.7099999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>47</v>
       </c>
@@ -23576,7 +23581,7 @@
         <v>1098.3099999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>48</v>
       </c>
@@ -23588,7 +23593,7 @@
         <v>1124.4899999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>49</v>
       </c>
@@ -23600,7 +23605,7 @@
         <v>1141.4399999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>50</v>
       </c>
@@ -23612,7 +23617,7 @@
         <v>1168.5599999999997</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>51</v>
       </c>
@@ -23624,7 +23629,7 @@
         <v>1190.0199999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>52</v>
       </c>
@@ -23636,7 +23641,7 @@
         <v>1219.9799999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>53</v>
       </c>
@@ -23648,7 +23653,7 @@
         <v>1257.3899999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>54</v>
       </c>
@@ -23660,7 +23665,7 @@
         <v>1290.1699999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>55</v>
       </c>
@@ -23672,7 +23677,7 @@
         <v>1321.83</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>56</v>
       </c>
@@ -23684,7 +23689,7 @@
         <v>1352.61</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>57</v>
       </c>
@@ -23696,7 +23701,7 @@
         <v>1364.6999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>58</v>
       </c>
@@ -23708,7 +23713,7 @@
         <v>1391.7399999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>59</v>
       </c>
@@ -23720,7 +23725,7 @@
         <v>1424.7899999999997</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>60</v>
       </c>
@@ -23732,7 +23737,7 @@
         <v>1456.1299999999997</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>61</v>
       </c>
@@ -23744,7 +23749,7 @@
         <v>1482.7399999999996</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>62</v>
       </c>
@@ -23756,7 +23761,7 @@
         <v>1505.8199999999995</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>63</v>
       </c>
@@ -23768,7 +23773,7 @@
         <v>1530.6199999999994</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>64</v>
       </c>
@@ -23780,7 +23785,7 @@
         <v>1558.0399999999995</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>65</v>
       </c>
@@ -23792,7 +23797,7 @@
         <v>1574.7799999999995</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>66</v>
       </c>
@@ -23804,7 +23809,7 @@
         <v>1599.4699999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>67</v>
       </c>
@@ -23816,7 +23821,7 @@
         <v>1630.8099999999995</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>68</v>
       </c>
@@ -23828,7 +23833,7 @@
         <v>1647.7599999999995</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>69</v>
       </c>
@@ -23838,7 +23843,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A14">
+  <sortState ref="A2:A14">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23854,18 +23859,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5:C78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -23873,7 +23879,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -23884,7 +23890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -23907,7 +23913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -23931,7 +23937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -23956,7 +23962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -23981,7 +23987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -24006,7 +24012,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -24031,7 +24037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -24049,7 +24055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -24067,7 +24073,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -24085,7 +24091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -24103,7 +24109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -24121,7 +24127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -24139,7 +24145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
@@ -24157,7 +24163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
@@ -24175,7 +24181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>15</v>
       </c>
@@ -24193,7 +24199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
@@ -24205,7 +24211,7 @@
         <v>442.21000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
@@ -24217,7 +24223,7 @@
         <v>466.64000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
@@ -24229,7 +24235,7 @@
         <v>505.80000000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
@@ -24241,7 +24247,7 @@
         <v>540.63000000000011</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20</v>
       </c>
@@ -24253,7 +24259,7 @@
         <v>559.33000000000015</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>21</v>
       </c>
@@ -24265,7 +24271,7 @@
         <v>587.00000000000011</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>22</v>
       </c>
@@ -24277,7 +24283,7 @@
         <v>610.40000000000009</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>23</v>
       </c>
@@ -24289,7 +24295,7 @@
         <v>649.88000000000011</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24</v>
       </c>
@@ -24301,7 +24307,7 @@
         <v>657.71000000000015</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>25</v>
       </c>
@@ -24313,7 +24319,7 @@
         <v>686.82000000000016</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>26</v>
       </c>
@@ -24325,7 +24331,7 @@
         <v>720.98000000000013</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>27</v>
       </c>
@@ -24337,7 +24343,7 @@
         <v>747.98000000000013</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>28</v>
       </c>
@@ -24349,7 +24355,7 @@
         <v>793.40000000000009</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>29</v>
       </c>
@@ -24361,7 +24367,7 @@
         <v>824.79000000000008</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>30</v>
       </c>
@@ -24373,7 +24379,7 @@
         <v>857.99000000000012</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>31</v>
       </c>
@@ -24385,7 +24391,7 @@
         <v>890.53000000000009</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>32</v>
       </c>
@@ -24397,7 +24403,7 @@
         <v>916.04000000000008</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>33</v>
       </c>
@@ -24409,7 +24415,7 @@
         <v>950.16000000000008</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>34</v>
       </c>
@@ -24421,7 +24427,7 @@
         <v>985.85000000000014</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>35</v>
       </c>
@@ -24433,7 +24439,7 @@
         <v>1010.9500000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>36</v>
       </c>
@@ -24445,7 +24451,7 @@
         <v>1036.7200000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>37</v>
       </c>
@@ -24457,7 +24463,7 @@
         <v>1046.8400000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>38</v>
       </c>
@@ -24469,7 +24475,7 @@
         <v>1052.5800000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>39</v>
       </c>
@@ -24481,7 +24487,7 @@
         <v>1061.5500000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>40</v>
       </c>
@@ -24493,7 +24499,7 @@
         <v>1081.7900000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>41</v>
       </c>
@@ -24505,7 +24511,7 @@
         <v>1095.8200000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>42</v>
       </c>
@@ -24517,7 +24523,7 @@
         <v>1143.7600000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>43</v>
       </c>
@@ -24529,7 +24535,7 @@
         <v>1170.5800000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>44</v>
       </c>
@@ -24541,7 +24547,7 @@
         <v>1199.3400000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>45</v>
       </c>
@@ -24553,7 +24559,7 @@
         <v>1225.18</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>46</v>
       </c>
@@ -24565,7 +24571,7 @@
         <v>1254.5900000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>47</v>
       </c>
@@ -24577,7 +24583,7 @@
         <v>1283.3500000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>48</v>
       </c>
@@ -24589,7 +24595,7 @@
         <v>1296.8400000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>49</v>
       </c>
@@ -24601,7 +24607,7 @@
         <v>1323.4900000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>50</v>
       </c>
@@ -24613,7 +24619,7 @@
         <v>1336.6600000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>51</v>
       </c>
@@ -24625,7 +24631,7 @@
         <v>1373.3000000000004</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>52</v>
       </c>
@@ -24637,7 +24643,7 @@
         <v>1381.4200000000003</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>53</v>
       </c>
@@ -24649,7 +24655,7 @@
         <v>1418.7900000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>54</v>
       </c>
@@ -24661,7 +24667,7 @@
         <v>1429.38</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>55</v>
       </c>
@@ -24673,7 +24679,7 @@
         <v>1473.14</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>56</v>
       </c>
@@ -24685,7 +24691,7 @@
         <v>1483.8700000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>57</v>
       </c>
@@ -24697,7 +24703,7 @@
         <v>1514.92</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>58</v>
       </c>
@@ -24709,7 +24715,7 @@
         <v>1559.28</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>59</v>
       </c>
@@ -24721,7 +24727,7 @@
         <v>1573.59</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>60</v>
       </c>
@@ -24733,7 +24739,7 @@
         <v>1614.6999999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>61</v>
       </c>
@@ -24745,7 +24751,7 @@
         <v>1641.1899999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>62</v>
       </c>
@@ -24757,7 +24763,7 @@
         <v>1650.6399999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>63</v>
       </c>
@@ -24769,7 +24775,7 @@
         <v>1670.4899999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>64</v>
       </c>
@@ -24781,7 +24787,7 @@
         <v>1709.9699999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>65</v>
       </c>
@@ -24793,7 +24799,7 @@
         <v>1728.8199999999997</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>66</v>
       </c>
@@ -24805,7 +24811,7 @@
         <v>1736.2999999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>67</v>
       </c>
@@ -24817,7 +24823,7 @@
         <v>1753.3799999999997</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>68</v>
       </c>
@@ -24829,7 +24835,7 @@
         <v>1761.9899999999996</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>69</v>
       </c>
@@ -24841,7 +24847,7 @@
         <v>1778.9399999999996</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>70</v>
       </c>
@@ -24853,7 +24859,7 @@
         <v>1787.9099999999996</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>71</v>
       </c>
@@ -24865,7 +24871,7 @@
         <v>1798.9999999999995</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>72</v>
       </c>
@@ -24877,7 +24883,7 @@
         <v>1806.9799999999996</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>73</v>
       </c>
@@ -24889,7 +24895,7 @@
         <v>1844.8799999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>74</v>
       </c>
@@ -24899,7 +24905,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A14">
+  <sortState ref="A2:A14">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24915,18 +24921,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
@@ -24934,7 +24941,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -24945,7 +24952,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -24968,7 +24975,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -24992,7 +24999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -25017,7 +25024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -25042,7 +25049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -25067,7 +25074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -25092,7 +25099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -25110,7 +25117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -25128,7 +25135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -25146,7 +25153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -25164,7 +25171,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -25182,7 +25189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -25200,7 +25207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -25218,7 +25225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -25236,7 +25243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -25254,7 +25261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
@@ -25266,7 +25273,7 @@
         <v>553.01</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
@@ -25278,7 +25285,7 @@
         <v>574.42999999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
@@ -25290,7 +25297,7 @@
         <v>582.34999999999991</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
@@ -25302,7 +25309,7 @@
         <v>591.31999999999994</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
@@ -25314,7 +25321,7 @@
         <v>616.41999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20</v>
       </c>
@@ -25326,7 +25333,7 @@
         <v>666.42</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>21</v>
       </c>
@@ -25338,7 +25345,7 @@
         <v>701.64</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>22</v>
       </c>
@@ -25350,7 +25357,7 @@
         <v>741.24</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>23</v>
       </c>
@@ -25362,7 +25369,7 @@
         <v>787.25</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -25374,7 +25381,7 @@
         <v>823.61</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -25386,7 +25393,7 @@
         <v>846.47</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -25398,7 +25405,7 @@
         <v>861.17000000000007</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>27</v>
       </c>
@@ -25410,7 +25417,7 @@
         <v>879.7</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>28</v>
       </c>
@@ -25422,7 +25429,7 @@
         <v>909.35</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>29</v>
       </c>
@@ -25434,7 +25441,7 @@
         <v>941.13</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>30</v>
       </c>
@@ -25446,7 +25453,7 @@
         <v>977.97</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -25458,7 +25465,7 @@
         <v>1006.73</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
@@ -25470,7 +25477,7 @@
         <v>1011.73</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -25482,7 +25489,7 @@
         <v>1020.75</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4</v>
       </c>
@@ -25494,7 +25501,7 @@
         <v>1027.81</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>32</v>
       </c>
@@ -25506,7 +25513,7 @@
         <v>1033.99</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>33</v>
       </c>
@@ -25518,7 +25525,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>34</v>
       </c>
@@ -25530,7 +25537,7 @@
         <v>1102.7</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>35</v>
       </c>
@@ -25542,7 +25549,7 @@
         <v>1141.3</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>36</v>
       </c>
@@ -25554,7 +25561,7 @@
         <v>1173.47</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>37</v>
       </c>
@@ -25566,7 +25573,7 @@
         <v>1200.3900000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>38</v>
       </c>
@@ -25578,7 +25585,7 @@
         <v>1229.3500000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>39</v>
       </c>
@@ -25590,7 +25597,7 @@
         <v>1253.5900000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>40</v>
       </c>
@@ -25602,7 +25609,7 @@
         <v>1283.92</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>41</v>
       </c>
@@ -25614,7 +25621,7 @@
         <v>1322.95</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>42</v>
       </c>
@@ -25626,7 +25633,7 @@
         <v>1354.06</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>43</v>
       </c>
@@ -25638,7 +25645,7 @@
         <v>1376.2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>44</v>
       </c>
@@ -25650,7 +25657,7 @@
         <v>1417.16</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>45</v>
       </c>
@@ -25662,7 +25669,7 @@
         <v>1467.44</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>46</v>
       </c>
@@ -25674,7 +25681,7 @@
         <v>1497.66</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>47</v>
       </c>
@@ -25686,7 +25693,7 @@
         <v>1533.41</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>48</v>
       </c>
@@ -25698,7 +25705,7 @@
         <v>1567.21</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>49</v>
       </c>
@@ -25708,7 +25715,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A14">
+  <sortState ref="A2:A14">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25724,20 +25731,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6:K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -25748,7 +25756,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -25759,7 +25767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -25782,7 +25790,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -25806,7 +25814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -25831,7 +25839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -25856,7 +25864,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -25881,7 +25889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -25906,7 +25914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -25924,7 +25932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -25942,7 +25950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -25960,7 +25968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -25978,7 +25986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -25996,7 +26004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -26014,7 +26022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -26032,7 +26040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -26050,7 +26058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>15</v>
       </c>
@@ -26068,7 +26076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -26080,7 +26088,7 @@
         <v>452.67000000000007</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -26092,7 +26100,7 @@
         <v>478.54000000000008</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -26104,7 +26112,7 @@
         <v>498.81000000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
@@ -26116,7 +26124,7 @@
         <v>510.30000000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -26128,7 +26136,7 @@
         <v>538.28000000000009</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
@@ -26140,7 +26148,7 @@
         <v>551.22000000000014</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
@@ -26152,7 +26160,7 @@
         <v>565.75000000000011</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
@@ -26164,7 +26172,7 @@
         <v>599.91000000000008</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24</v>
       </c>
@@ -26176,7 +26184,7 @@
         <v>635.66000000000008</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
@@ -26188,7 +26196,7 @@
         <v>664.04000000000008</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
@@ -26200,7 +26208,7 @@
         <v>697.63000000000011</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
@@ -26212,7 +26220,7 @@
         <v>724.94</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
@@ -26224,7 +26232,7 @@
         <v>753.79000000000008</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
@@ -26236,7 +26244,7 @@
         <v>766.65000000000009</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
@@ -26248,7 +26256,7 @@
         <v>776.47000000000014</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>31</v>
       </c>
@@ -26260,7 +26268,7 @@
         <v>789.87000000000012</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>32</v>
       </c>
@@ -26272,7 +26280,7 @@
         <v>824.54000000000008</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>33</v>
       </c>
@@ -26284,7 +26292,7 @@
         <v>849.34</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>34</v>
       </c>
@@ -26296,7 +26304,7 @@
         <v>865.91000000000008</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>35</v>
       </c>
@@ -26308,7 +26316,7 @@
         <v>900.0100000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>36</v>
       </c>
@@ -26320,7 +26328,7 @@
         <v>909.3900000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>37</v>
       </c>
@@ -26332,7 +26340,7 @@
         <v>947.63000000000011</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>38</v>
       </c>
@@ -26344,7 +26352,7 @@
         <v>995.08000000000015</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>39</v>
       </c>
@@ -26356,7 +26364,7 @@
         <v>1045.1300000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>40</v>
       </c>
@@ -26368,7 +26376,7 @@
         <v>1102.5500000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>41</v>
       </c>
@@ -26380,7 +26388,7 @@
         <v>1166.5100000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>42</v>
       </c>
@@ -26392,7 +26400,7 @@
         <v>1178.4300000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>43</v>
       </c>
@@ -26404,7 +26412,7 @@
         <v>1215.1400000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>44</v>
       </c>
@@ -26416,7 +26424,7 @@
         <v>1223.3800000000003</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>45</v>
       </c>
@@ -26428,7 +26436,7 @@
         <v>1240.6100000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>46</v>
       </c>
@@ -26440,7 +26448,7 @@
         <v>1273.8900000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>47</v>
       </c>
@@ -26452,7 +26460,7 @@
         <v>1304.4800000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>48</v>
       </c>
@@ -26464,7 +26472,7 @@
         <v>1347.5700000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>49</v>
       </c>
@@ -26476,7 +26484,7 @@
         <v>1391.68</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>50</v>
       </c>
@@ -26488,7 +26496,7 @@
         <v>1414.0600000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>51</v>
       </c>
@@ -26500,7 +26508,7 @@
         <v>1451.2800000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>52</v>
       </c>
@@ -26512,7 +26520,7 @@
         <v>1457.5300000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>53</v>
       </c>
@@ -26524,7 +26532,7 @@
         <v>1483.9800000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>54</v>
       </c>
@@ -26536,7 +26544,7 @@
         <v>1503.7500000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>55</v>
       </c>
@@ -26548,7 +26556,7 @@
         <v>1525.6300000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>56</v>
       </c>
@@ -26560,7 +26568,7 @@
         <v>1545.4000000000003</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>57</v>
       </c>
@@ -26572,7 +26580,7 @@
         <v>1555.2800000000004</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>58</v>
       </c>
@@ -26584,7 +26592,7 @@
         <v>1588.0600000000004</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>59</v>
       </c>
@@ -26596,7 +26604,7 @@
         <v>1615.1800000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>60</v>
       </c>
@@ -26608,7 +26616,7 @@
         <v>1633.9300000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>61</v>
       </c>
@@ -26620,7 +26628,7 @@
         <v>1663.0700000000004</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>62</v>
       </c>
@@ -26632,7 +26640,7 @@
         <v>1686.0500000000004</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>63</v>
       </c>
@@ -26644,7 +26652,7 @@
         <v>1703.1300000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>64</v>
       </c>
@@ -26656,7 +26664,7 @@
         <v>1738.0200000000004</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>65</v>
       </c>
@@ -26668,7 +26676,7 @@
         <v>1781.5500000000004</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>66</v>
       </c>
@@ -26680,7 +26688,7 @@
         <v>1814.5000000000005</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>67</v>
       </c>
@@ -26692,7 +26700,7 @@
         <v>1838.1900000000005</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>68</v>
       </c>
@@ -26704,7 +26712,7 @@
         <v>1866.5100000000004</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>69</v>
       </c>
@@ -26716,7 +26724,7 @@
         <v>1886.3600000000004</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>70</v>
       </c>
@@ -26728,7 +26736,7 @@
         <v>1914.4100000000003</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>71</v>
       </c>
@@ -26740,7 +26748,7 @@
         <v>1946.3500000000004</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <f>A74+1</f>
         <v>72</v>
@@ -26753,7 +26761,7 @@
         <v>1981.6000000000004</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" ref="A76:A91" si="3">A75+1</f>
         <v>73</v>
@@ -26766,7 +26774,7 @@
         <v>2009.0200000000004</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="3"/>
         <v>74</v>
@@ -26779,7 +26787,7 @@
         <v>2042.8900000000003</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -26792,7 +26800,7 @@
         <v>2075.8700000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="3"/>
         <v>76</v>
@@ -26805,7 +26813,7 @@
         <v>2104.0400000000004</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="3"/>
         <v>77</v>
@@ -26818,7 +26826,7 @@
         <v>2130.4500000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="3"/>
         <v>78</v>
@@ -26831,7 +26839,7 @@
         <v>2142.4600000000005</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="3"/>
         <v>79</v>
@@ -26844,7 +26852,7 @@
         <v>2172.6600000000003</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="3"/>
         <v>80</v>
@@ -26857,7 +26865,7 @@
         <v>2200.8300000000004</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="3"/>
         <v>81</v>
@@ -26870,7 +26878,7 @@
         <v>2229.0100000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="3"/>
         <v>82</v>
@@ -26883,7 +26891,7 @@
         <v>2256.0500000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="3"/>
         <v>83</v>
@@ -26896,7 +26904,7 @@
         <v>2266.79</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="3"/>
         <v>84</v>
@@ -26909,7 +26917,7 @@
         <v>2303.1799999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="3"/>
         <v>85</v>
@@ -26922,7 +26930,7 @@
         <v>2329.5899999999997</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="3"/>
         <v>86</v>
@@ -26935,7 +26943,7 @@
         <v>2352.35</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="3"/>
         <v>87</v>
@@ -26948,7 +26956,7 @@
         <v>2362.8399999999997</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="3"/>
         <v>88</v>
@@ -26959,7 +26967,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A14">
+  <sortState ref="A2:A14">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26975,18 +26983,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
@@ -26997,8 +27006,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -27015,7 +27024,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -27038,7 +27047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -27062,7 +27071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -27087,7 +27096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -27112,7 +27121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -27137,7 +27146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -27162,7 +27171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -27180,7 +27189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -27198,7 +27207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -27216,7 +27225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -27234,7 +27243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -27252,7 +27261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -27270,7 +27279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -27288,7 +27297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>14</v>
       </c>
@@ -27306,7 +27315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -27318,7 +27327,7 @@
         <v>383.24</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -27330,7 +27339,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -27342,7 +27351,7 @@
         <v>416.49</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -27352,7 +27361,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A14">
+  <sortState ref="A2:A14">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27367,18 +27376,19 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
@@ -27389,8 +27399,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -27407,7 +27417,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -27430,7 +27440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -27454,7 +27464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -27479,7 +27489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -27504,7 +27514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -27529,7 +27539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -27554,7 +27564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -27572,7 +27582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -27590,7 +27600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -27608,7 +27618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -27626,7 +27636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -27641,7 +27651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K15">
         <v>55</v>
       </c>
@@ -27649,7 +27659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K16">
         <v>60</v>
       </c>
@@ -27657,7 +27667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="11:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="11:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K17" s="3" t="s">
         <v>13</v>
       </c>
@@ -27666,7 +27676,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A14">
+  <sortState ref="A2:A14">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27682,18 +27692,19 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:V69"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>34</v>
       </c>
@@ -27702,7 +27713,7 @@
       </c>
       <c r="V1" s="7"/>
     </row>
-    <row r="3" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -27719,7 +27730,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -27742,7 +27753,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -27767,7 +27778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -27792,7 +27803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -27817,7 +27828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -27842,7 +27853,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -27860,7 +27871,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -27878,7 +27889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -27896,7 +27907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -27914,7 +27925,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -27932,7 +27943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -27950,7 +27961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -27968,7 +27979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -27986,7 +27997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -28004,7 +28015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>15</v>
       </c>
@@ -28022,7 +28033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -28034,7 +28045,7 @@
         <v>317.54000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -28046,7 +28057,7 @@
         <v>340.94</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -28058,7 +28069,7 @@
         <v>369.26</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
@@ -28070,7 +28081,7 @@
         <v>387.09999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -28082,7 +28093,7 @@
         <v>399.02</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
@@ -28094,7 +28105,7 @@
         <v>445.22999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
@@ -28106,7 +28117,7 @@
         <v>457.72999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
@@ -28118,7 +28129,7 @@
         <v>503.48999999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24</v>
       </c>
@@ -28130,7 +28141,7 @@
         <v>518.9799999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
@@ -28142,7 +28153,7 @@
         <v>543.32999999999993</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
@@ -28154,7 +28165,7 @@
         <v>561.37999999999988</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
@@ -28166,7 +28177,7 @@
         <v>574.9799999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
@@ -28178,7 +28189,7 @@
         <v>592.05999999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
@@ -28190,7 +28201,7 @@
         <v>602.44999999999993</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
@@ -28202,7 +28213,7 @@
         <v>611.75999999999988</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>31</v>
       </c>
@@ -28214,7 +28225,7 @@
         <v>626.17999999999984</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>32</v>
       </c>
@@ -28226,7 +28237,7 @@
         <v>658.87999999999988</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>33</v>
       </c>
@@ -28238,7 +28249,7 @@
         <v>691.65999999999985</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>34</v>
       </c>
@@ -28250,7 +28261,7 @@
         <v>716.74999999999989</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>35</v>
       </c>
@@ -28262,7 +28273,7 @@
         <v>748.50999999999988</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>36</v>
       </c>
@@ -28274,7 +28285,7 @@
         <v>770.4799999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>37</v>
       </c>
@@ -28286,7 +28297,7 @@
         <v>797.68999999999994</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>38</v>
       </c>
@@ -28298,7 +28309,7 @@
         <v>811.9</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>39</v>
       </c>
@@ -28310,7 +28321,7 @@
         <v>832.61</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>40</v>
       </c>
@@ -28322,7 +28333,7 @@
         <v>861.75</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>41</v>
       </c>
@@ -28334,7 +28345,7 @@
         <v>883.72</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>42</v>
       </c>
@@ -28346,7 +28357,7 @@
         <v>899.35</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>43</v>
       </c>
@@ -28358,7 +28369,7 @@
         <v>923.85</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>44</v>
       </c>
@@ -28370,7 +28381,7 @@
         <v>931.57</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>45</v>
       </c>
@@ -28382,7 +28393,7 @@
         <v>964.71</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>46</v>
       </c>
@@ -28394,7 +28405,7 @@
         <v>1004.36</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>47</v>
       </c>
@@ -28406,7 +28417,7 @@
         <v>1051.19</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>48</v>
       </c>
@@ -28418,7 +28429,7 @@
         <v>1109.76</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>49</v>
       </c>
@@ -28430,7 +28441,7 @@
         <v>1143.1600000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>50</v>
       </c>
@@ -28442,7 +28453,7 @@
         <v>1177.0800000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>51</v>
       </c>
@@ -28454,7 +28465,7 @@
         <v>1185.95</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>52</v>
       </c>
@@ -28466,7 +28477,7 @@
         <v>1217.96</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>53</v>
       </c>
@@ -28478,7 +28489,7 @@
         <v>1226.69</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>54</v>
       </c>
@@ -28490,7 +28501,7 @@
         <v>1244.68</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>55</v>
       </c>
@@ -28502,7 +28513,7 @@
         <v>1275.6200000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>56</v>
       </c>
@@ -28514,7 +28525,7 @@
         <v>1300.47</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>57</v>
       </c>
@@ -28526,7 +28537,7 @@
         <v>1338.52</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>58</v>
       </c>
@@ -28538,7 +28549,7 @@
         <v>1397.93</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>59</v>
       </c>
@@ -28550,7 +28561,7 @@
         <v>1456.17</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>60</v>
       </c>
@@ -28562,7 +28573,7 @@
         <v>1476.8300000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>61</v>
       </c>
@@ -28574,7 +28585,7 @@
         <v>1492.0500000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>62</v>
       </c>
@@ -28586,7 +28597,7 @@
         <v>1507.6800000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>63</v>
       </c>
@@ -28598,7 +28609,7 @@
         <v>1524.1500000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>64</v>
       </c>
@@ -28610,7 +28621,7 @@
         <v>1557.0500000000004</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>65</v>
       </c>
@@ -28622,7 +28633,7 @@
         <v>1596.3700000000003</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>66</v>
       </c>
@@ -28632,7 +28643,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A14">
+  <sortState ref="A2:A14">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
